--- a/public/files/SalesReport.xlsx
+++ b/public/files/SalesReport.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,60 +415,12 @@
         <v>JOL MILK</v>
       </c>
       <c r="B2">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>MILKY MIST</v>
-      </c>
-      <c r="B3">
-        <v>5650</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>NEW MILKY</v>
-      </c>
-      <c r="B4">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>HST MILK  MIST</v>
-      </c>
-      <c r="B5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>DELIGHT</v>
-      </c>
-      <c r="B6">
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>AMUL MILK</v>
-      </c>
-      <c r="B7">
-        <v>1950</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>ZOOM</v>
-      </c>
-      <c r="B8">
-        <v>250</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/files/SalesReport.xlsx
+++ b/public/files/SalesReport.xlsx
@@ -397,30 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Product</v>
-      </c>
-      <c r="B1" t="str">
-        <v>TotalAmount</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>JOL MILK</v>
-      </c>
-      <c r="B2">
-        <v>450</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/files/SalesReport.xlsx
+++ b/public/files/SalesReport.xlsx
@@ -397,13 +397,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Product</v>
+      </c>
+      <c r="B1" t="str">
+        <v>TotalAmount</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>MILLMMA</v>
+      </c>
+      <c r="B2">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/files/SalesReport.xlsx
+++ b/public/files/SalesReport.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,15 +412,39 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>MILLMMA</v>
+        <v>DELIGHT MILK</v>
       </c>
       <c r="B2">
-        <v>540</v>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>NESTLE MILK</v>
+      </c>
+      <c r="B3">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve">HST MILK </v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>MILMA</v>
+      </c>
+      <c r="B5">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B5"/>
   </ignoredErrors>
 </worksheet>
 </file>